--- a/data/coded_segments/zm_3_3.xlsx
+++ b/data/coded_segments/zm_3_3.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D692C225-0DCA-0E40-A7BA-F8E034D51E1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -5407,7 +5403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5557,10 +5553,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5583,7 +5582,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -5595,7 +5594,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -5612,9 +5611,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -5642,14 +5641,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -5677,6 +5693,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5828,7 +5861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M583"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -5886,7 +5919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -5927,7 +5960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -5968,7 +6001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -6009,7 +6042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -6050,7 +6083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -6091,7 +6124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -6132,7 +6165,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -7075,7 +7108,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -7116,7 +7149,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -9371,7 +9404,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -9412,7 +9445,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>13</v>
       </c>
@@ -9453,7 +9486,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -9494,7 +9527,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>13</v>
       </c>
@@ -9535,7 +9568,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
@@ -9617,7 +9650,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>13</v>
       </c>
@@ -9699,7 +9732,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -9740,7 +9773,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -9781,7 +9814,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>13</v>
       </c>
@@ -9822,7 +9855,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>13</v>
       </c>
@@ -9863,7 +9896,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>13</v>
       </c>
@@ -9904,7 +9937,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>13</v>
       </c>
@@ -9945,7 +9978,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>13</v>
       </c>
@@ -9986,7 +10019,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>13</v>
       </c>
@@ -10027,7 +10060,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -11052,7 +11085,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
@@ -11093,7 +11126,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
@@ -11134,7 +11167,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
@@ -14045,7 +14078,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>13</v>
       </c>
@@ -14086,7 +14119,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>13</v>
       </c>
@@ -14168,7 +14201,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>13</v>
       </c>
@@ -14250,7 +14283,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>13</v>
       </c>
@@ -14291,7 +14324,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>13</v>
       </c>
@@ -14332,7 +14365,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>13</v>
       </c>
@@ -14373,7 +14406,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>13</v>
       </c>
@@ -14414,7 +14447,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>13</v>
       </c>
@@ -14455,7 +14488,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>13</v>
       </c>
@@ -14496,7 +14529,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>13</v>
       </c>
@@ -14537,7 +14570,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>13</v>
       </c>
@@ -14578,7 +14611,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>13</v>
       </c>
@@ -14619,7 +14652,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>13</v>
       </c>
@@ -14660,7 +14693,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>13</v>
       </c>
@@ -14701,7 +14734,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>13</v>
       </c>
@@ -14742,7 +14775,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>13</v>
       </c>
@@ -14783,7 +14816,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>13</v>
       </c>
@@ -14824,7 +14857,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>13</v>
       </c>
@@ -14947,7 +14980,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>13</v>
       </c>
@@ -15029,7 +15062,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>13</v>
       </c>
@@ -15070,7 +15103,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>13</v>
       </c>
@@ -15111,7 +15144,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>13</v>
       </c>
@@ -16136,7 +16169,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>13</v>
       </c>
@@ -16218,7 +16251,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>13</v>
       </c>
@@ -16259,7 +16292,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>13</v>
       </c>
@@ -16628,7 +16661,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>13</v>
       </c>
@@ -16669,7 +16702,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>13</v>
       </c>
@@ -16710,7 +16743,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>13</v>
       </c>
@@ -16751,7 +16784,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>13</v>
       </c>
@@ -17735,7 +17768,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>13</v>
       </c>
@@ -17817,7 +17850,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>13</v>
       </c>
@@ -19498,7 +19531,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>13</v>
       </c>
@@ -19703,7 +19736,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>13</v>
       </c>
@@ -19826,7 +19859,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>13</v>
       </c>
@@ -19867,7 +19900,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>13</v>
       </c>
@@ -19908,7 +19941,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>13</v>
       </c>
@@ -20031,7 +20064,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>13</v>
       </c>
@@ -20113,7 +20146,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>13</v>
       </c>
@@ -20154,7 +20187,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
         <v>13</v>
       </c>
@@ -20236,7 +20269,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>13</v>
       </c>
@@ -20441,7 +20474,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>13</v>
       </c>
@@ -20482,7 +20515,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>13</v>
       </c>
@@ -20523,7 +20556,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>13</v>
       </c>
@@ -20564,7 +20597,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>13</v>
       </c>
@@ -21261,7 +21294,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>13</v>
       </c>
@@ -21384,7 +21417,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>13</v>
       </c>
@@ -21425,7 +21458,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>13</v>
       </c>
@@ -21466,7 +21499,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>13</v>
       </c>
@@ -21507,7 +21540,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>13</v>
       </c>
@@ -21548,7 +21581,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>13</v>
       </c>
@@ -28723,7 +28756,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="559" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A559" s="6" t="s">
         <v>13</v>
       </c>
@@ -28764,7 +28797,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A560" s="6" t="s">
         <v>13</v>
       </c>
@@ -28969,7 +29002,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A565" s="6" t="s">
         <v>13</v>
       </c>
@@ -29010,7 +29043,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A566" s="6" t="s">
         <v>13</v>
       </c>
@@ -29133,7 +29166,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A569" s="6" t="s">
         <v>13</v>
       </c>
@@ -29174,7 +29207,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A570" s="6" t="s">
         <v>13</v>
       </c>
@@ -29215,7 +29248,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A571" s="6" t="s">
         <v>13</v>
       </c>
@@ -29256,7 +29289,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A572" s="6" t="s">
         <v>13</v>
       </c>
@@ -29461,7 +29494,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A577" s="6" t="s">
         <v>13</v>
       </c>
@@ -29502,7 +29535,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A578" s="6" t="s">
         <v>13</v>
       </c>
@@ -29707,7 +29740,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A583" s="6" t="s">
         <v>13</v>
       </c>
